--- a/codelists/oral_steroids_SNOMED.xlsx
+++ b/codelists/oral_steroids_SNOMED.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:A398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,23 +360,13 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>VPID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>APID</t>
+          <t>Medcode</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>41968511000001100</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>41935311000001107</t>
         </is>
       </c>
@@ -384,11 +374,6 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>41968511000001100</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>42162111000001109</t>
         </is>
       </c>
@@ -396,11 +381,6 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>41968511000001100</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>42312211000001106</t>
         </is>
       </c>
@@ -408,11 +388,6 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>41968211000001103</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>41935711000001106</t>
         </is>
       </c>
@@ -420,11 +395,6 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>41968211000001103</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>42164411000001106</t>
         </is>
       </c>
@@ -432,11 +402,6 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>41968211000001103</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>42311211000001104</t>
         </is>
       </c>
@@ -444,11 +409,6 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>41968311000001106</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>41936211000001105</t>
         </is>
       </c>
@@ -456,11 +416,6 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>41968311000001106</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>42164711000001100</t>
         </is>
       </c>
@@ -468,11 +423,6 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>41968311000001106</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
           <t>42311511000001101</t>
         </is>
       </c>
@@ -480,11 +430,6 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>41968411000001104</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
           <t>41936511000001108</t>
         </is>
       </c>
@@ -492,11 +437,6 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>41968411000001104</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
           <t>42165411000001107</t>
         </is>
       </c>
@@ -504,11 +444,6 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>41968411000001104</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
           <t>42312011000001101</t>
         </is>
       </c>
@@ -516,11 +451,6 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40306711000001107</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
           <t>40297111000001104</t>
         </is>
       </c>
@@ -528,11 +458,6 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>40306711000001107</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
           <t>40607211000001105</t>
         </is>
       </c>
@@ -540,11 +465,6 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>40306711000001107</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
           <t>40667411000001105</t>
         </is>
       </c>
@@ -552,11 +472,6 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>40306811000001104</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
           <t>40297411000001109</t>
         </is>
       </c>
@@ -564,11 +479,6 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>40306811000001104</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
           <t>40607411000001109</t>
         </is>
       </c>
@@ -576,11 +486,6 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>40306811000001104</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>40667611000001108</t>
         </is>
       </c>
@@ -588,11 +493,6 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>35574111000001104</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>35561711000001107</t>
         </is>
       </c>
@@ -600,11 +500,6 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>35574111000001104</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
           <t>35632011000001100</t>
         </is>
       </c>
@@ -612,11 +507,6 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>34796811000001100</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
           <t>34789811000001105</t>
         </is>
       </c>
@@ -624,11 +514,6 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>42082111000001103</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
           <t>33497811000001107</t>
         </is>
       </c>
@@ -636,11 +521,6 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>42082111000001103</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>33557411000001107</t>
         </is>
       </c>
@@ -648,11 +528,6 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>42082111000001103</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
           <t>34464111000001106</t>
         </is>
       </c>
@@ -660,11 +535,6 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>42082111000001103</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>35560411000001105</t>
         </is>
       </c>
@@ -672,11 +542,6 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>42082111000001103</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
           <t>37236811000001109</t>
         </is>
       </c>
@@ -684,11 +549,6 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>42082111000001103</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
           <t>37628711000001102</t>
         </is>
       </c>
@@ -696,11 +556,6 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>42082111000001103</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
           <t>37743911000001104</t>
         </is>
       </c>
@@ -708,11 +563,6 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>42082111000001103</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
           <t>38867411000001100</t>
         </is>
       </c>
@@ -720,11 +570,6 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>42082111000001103</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
           <t>39013111000001100</t>
         </is>
       </c>
@@ -732,11 +577,6 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>32781411000001102</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
           <t>32774411000001107</t>
         </is>
       </c>
@@ -744,11 +584,6 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>32781411000001102</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
           <t>32776711000001105</t>
         </is>
       </c>
@@ -756,11 +591,6 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>32781411000001102</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
           <t>39173511000001107</t>
         </is>
       </c>
@@ -768,11 +598,6 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>32611811000001105</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
           <t>32584711000001105</t>
         </is>
       </c>
@@ -780,11 +605,6 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>32611811000001105</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
           <t>33425811000001105</t>
         </is>
       </c>
@@ -792,11 +612,6 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>32611811000001105</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
           <t>33428411000001103</t>
         </is>
       </c>
@@ -804,11 +619,6 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>32611811000001105</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
           <t>37130011000001104</t>
         </is>
       </c>
@@ -816,11 +626,6 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>32611811000001105</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
           <t>37778311000001107</t>
         </is>
       </c>
@@ -828,11 +633,6 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>32071811000001109</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
           <t>31959911000001105</t>
         </is>
       </c>
@@ -840,11 +640,6 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>32071811000001109</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
           <t>32400911000001106</t>
         </is>
       </c>
@@ -852,11 +647,6 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>32071811000001109</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
           <t>32418411000001103</t>
         </is>
       </c>
@@ -864,11 +654,6 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>32071811000001109</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
           <t>34743111000001109</t>
         </is>
       </c>
@@ -876,11 +661,6 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>32071811000001109</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
           <t>37602611000001104</t>
         </is>
       </c>
@@ -888,11 +668,6 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>32072011000001106</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
           <t>31961311000001100</t>
         </is>
       </c>
@@ -900,11 +675,6 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>32072011000001106</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
           <t>32401311000001100</t>
         </is>
       </c>
@@ -912,11 +682,6 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>32072011000001106</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
           <t>32418811000001101</t>
         </is>
       </c>
@@ -924,11 +689,6 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>32072011000001106</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
           <t>34743611000001101</t>
         </is>
       </c>
@@ -936,11 +696,6 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>32072011000001106</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
           <t>37603011000001102</t>
         </is>
       </c>
@@ -948,11 +703,6 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>32071911000001104</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
           <t>31961811000001109</t>
         </is>
       </c>
@@ -960,11 +710,6 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>32071911000001104</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
           <t>32401111000001102</t>
         </is>
       </c>
@@ -972,11 +717,6 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>32071911000001104</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
           <t>32418611000001100</t>
         </is>
       </c>
@@ -984,11 +724,6 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>32071911000001104</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
           <t>34743411000001104</t>
         </is>
       </c>
@@ -996,11 +731,6 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>32071911000001104</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
           <t>37602811000001100</t>
         </is>
       </c>
@@ -1008,11 +738,6 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>31141511000001103</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
           <t>31138811000001105</t>
         </is>
       </c>
@@ -1020,11 +745,6 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>29904211000001102</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
           <t>29879111000001105</t>
         </is>
       </c>
@@ -1032,11 +752,6 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>29904211000001102</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
           <t>30129111000001103</t>
         </is>
       </c>
@@ -1044,11 +759,6 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>29904211000001102</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
           <t>37778511000001101</t>
         </is>
       </c>
@@ -1056,11 +766,6 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>29904211000001102</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
           <t>37941611000001100</t>
         </is>
       </c>
@@ -1068,11 +773,6 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>29904211000001102</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
           <t>39174011000001102</t>
         </is>
       </c>
@@ -1080,11 +780,6 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>29904211000001102</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
           <t>40435311000001104</t>
         </is>
       </c>
@@ -1092,11 +787,6 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>29424511000001109</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
           <t>29361211000001105</t>
         </is>
       </c>
@@ -1104,11 +794,6 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>29424511000001109</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
           <t>29559211000001100</t>
         </is>
       </c>
@@ -1116,11 +801,6 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>29424511000001109</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
           <t>32688311000001106</t>
         </is>
       </c>
@@ -1128,11 +808,6 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>28881311000001104</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
           <t>28877111000001101</t>
         </is>
       </c>
@@ -1140,11 +815,6 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>28881311000001104</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
           <t>29224011000001100</t>
         </is>
       </c>
@@ -1152,11 +822,6 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>28881311000001104</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
           <t>39991711000001108</t>
         </is>
       </c>
@@ -1164,11 +829,6 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>28808611000001100</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
           <t>28798211000001102</t>
         </is>
       </c>
@@ -1176,11 +836,6 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>28808611000001100</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
           <t>32772911000001108</t>
         </is>
       </c>
@@ -1188,11 +843,6 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>28808611000001100</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
           <t>32776111000001109</t>
         </is>
       </c>
@@ -1200,11 +850,6 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>28808611000001100</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
           <t>39172911000001107</t>
         </is>
       </c>
@@ -1212,11 +857,6 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>28808411000001103</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
           <t>28799311000001104</t>
         </is>
       </c>
@@ -1224,11 +864,6 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>28808411000001103</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
           <t>32771211000001106</t>
         </is>
       </c>
@@ -1236,11 +871,6 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>28808411000001103</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
           <t>32776311000001106</t>
         </is>
       </c>
@@ -1248,11 +878,6 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>28808411000001103</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
           <t>39169811000001100</t>
         </is>
       </c>
@@ -1260,11 +885,6 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>28808711000001109</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
           <t>28799611000001109</t>
         </is>
       </c>
@@ -1272,11 +892,6 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>28808711000001109</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
           <t>32773211000001105</t>
         </is>
       </c>
@@ -1284,11 +899,6 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>28808711000001109</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
           <t>32776511000001100</t>
         </is>
       </c>
@@ -1296,11 +906,6 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>28808711000001109</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
           <t>39888311000001108</t>
         </is>
       </c>
@@ -1308,11 +913,6 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>24580511000001101</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
           <t>24569711000001102</t>
         </is>
       </c>
@@ -1320,11 +920,6 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>24350911000001102</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
           <t>24343211000001103</t>
         </is>
       </c>
@@ -1332,11 +927,6 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>24350911000001102</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
           <t>24416211000001107</t>
         </is>
       </c>
@@ -1344,11 +934,6 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>24350911000001102</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
           <t>24421311000001102</t>
         </is>
       </c>
@@ -1356,11 +941,6 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>24350911000001102</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
           <t>28876811000001106</t>
         </is>
       </c>
@@ -1368,11 +948,6 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>24350911000001102</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
           <t>29803311000001100</t>
         </is>
       </c>
@@ -1380,11 +955,6 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>24350911000001102</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
           <t>39991511000001103</t>
         </is>
       </c>
@@ -1392,11 +962,6 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>17872811000001100</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
           <t>17872911000001105</t>
         </is>
       </c>
@@ -1404,11 +969,6 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>17873211000001107</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
           <t>17873311000001104</t>
         </is>
       </c>
@@ -1416,11 +976,6 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>17873811000001108</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
           <t>17873911000001103</t>
         </is>
       </c>
@@ -1428,11 +983,6 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>14204411000001101</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
           <t>14173111000001101</t>
         </is>
       </c>
@@ -1440,11 +990,6 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>14204511000001102</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
           <t>14173511000001105</t>
         </is>
       </c>
@@ -1452,11 +997,6 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>42087411000001106</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
           <t>13120111000001109</t>
         </is>
       </c>
@@ -1464,11 +1004,6 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>13133111000001100</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
           <t>13120411000001104</t>
         </is>
       </c>
@@ -1476,11 +1011,6 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>13078411000001108</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
           <t>13053211000001103</t>
         </is>
       </c>
@@ -1488,11 +1018,6 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>13078311000001101</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
           <t>13053711000001105</t>
         </is>
       </c>
@@ -1500,11 +1025,6 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>13078611000001106</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
           <t>13054411000001101</t>
         </is>
       </c>
@@ -1512,11 +1032,6 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>42086511000001108</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
           <t>13054711000001107</t>
         </is>
       </c>
@@ -1524,11 +1039,6 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>42086711000001103</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
           <t>13055311000001107</t>
         </is>
       </c>
@@ -1536,11 +1046,6 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>42086611000001107</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
           <t>13055911000001108</t>
         </is>
       </c>
@@ -1548,11 +1053,6 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>13079011000001109</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
           <t>13056211000001105</t>
         </is>
       </c>
@@ -1560,11 +1060,6 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>13078911000001100</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
           <t>13056511000001108</t>
         </is>
       </c>
@@ -1572,11 +1067,6 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>13079211000001104</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
           <t>13056811000001106</t>
         </is>
       </c>
@@ -1584,11 +1074,6 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>13079111000001105</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
           <t>13057411000001106</t>
         </is>
       </c>
@@ -1596,11 +1081,6 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>13079411000001100</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
           <t>13058011000001101</t>
         </is>
       </c>
@@ -1608,11 +1088,6 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>13079311000001107</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
           <t>13058311000001103</t>
         </is>
       </c>
@@ -1620,11 +1095,6 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>13079611000001102</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
           <t>13058611000001108</t>
         </is>
       </c>
@@ -1632,11 +1102,6 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>13079511000001101</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
           <t>13058911000001102</t>
         </is>
       </c>
@@ -1644,11 +1109,6 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>11714611000001101</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
           <t>11684111000001104</t>
         </is>
       </c>
@@ -1656,11 +1116,6 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>11714511000001100</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
           <t>11684711000001103</t>
         </is>
       </c>
@@ -1668,11 +1123,6 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>11714811000001102</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
           <t>11685011000001101</t>
         </is>
       </c>
@@ -1680,11 +1130,6 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>11714711000001105</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
           <t>11685311000001103</t>
         </is>
       </c>
@@ -1692,11 +1137,6 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>11714911000001107</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
           <t>11685611000001108</t>
         </is>
       </c>
@@ -1704,11 +1144,6 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>11715111000001108</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
           <t>11686511000001102</t>
         </is>
       </c>
@@ -1716,11 +1151,6 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>11715011000001107</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
           <t>11687111000001109</t>
         </is>
       </c>
@@ -1728,11 +1158,6 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>11715311000001105</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
           <t>11687711000001105</t>
         </is>
       </c>
@@ -1740,11 +1165,6 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>11715211000001102</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
           <t>11688011000001109</t>
         </is>
       </c>
@@ -1752,11 +1172,6 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>11715511000001104</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
           <t>11688611000001102</t>
         </is>
       </c>
@@ -1764,11 +1179,6 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>11715411000001103</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
           <t>11689211000001109</t>
         </is>
       </c>
@@ -1776,11 +1186,6 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>11715711000001109</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
           <t>11689511000001107</t>
         </is>
       </c>
@@ -1788,11 +1193,6 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>11715611000001100</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
           <t>11690111000001109</t>
         </is>
       </c>
@@ -1800,11 +1200,6 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>11715911000001106</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
           <t>11690411000001104</t>
         </is>
       </c>
@@ -1812,11 +1207,6 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>11715811000001101</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
           <t>11691011000001104</t>
         </is>
       </c>
@@ -1824,11 +1214,6 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>11716111000001102</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
           <t>11691411000001108</t>
         </is>
       </c>
@@ -1836,11 +1221,6 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>11716011000001103</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
           <t>11691911000001100</t>
         </is>
       </c>
@@ -1848,11 +1228,6 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>11716311000001100</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
           <t>11692211000001102</t>
         </is>
       </c>
@@ -1860,11 +1235,6 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>11716211000001108</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
           <t>11692611000001100</t>
         </is>
       </c>
@@ -1872,11 +1242,6 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>11716511000001106</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
           <t>11693111000001102</t>
         </is>
       </c>
@@ -1884,11 +1249,6 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>11716411000001107</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
           <t>11693411000001107</t>
         </is>
       </c>
@@ -1896,11 +1256,6 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>11716711000001101</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
           <t>11693711000001101</t>
         </is>
       </c>
@@ -1908,11 +1263,6 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>11716611000001105</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
           <t>11694011000001101</t>
         </is>
       </c>
@@ -1920,11 +1270,6 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>11716911000001104</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
           <t>11694311000001103</t>
         </is>
       </c>
@@ -1932,11 +1277,6 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>11716811000001109</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
           <t>11694611000001108</t>
         </is>
       </c>
@@ -1944,11 +1284,6 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>11612111000001109</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
           <t>11602311000001108</t>
         </is>
       </c>
@@ -1956,11 +1291,6 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>42087611000001109</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
           <t>11386511000001109</t>
         </is>
       </c>
@@ -1968,11 +1298,6 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>42087811000001108</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
           <t>11387011000001103</t>
         </is>
       </c>
@@ -1980,11 +1305,6 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>42087711000001100</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
           <t>11387311000001100</t>
         </is>
       </c>
@@ -1992,11 +1312,6 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>8792611000001104</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
           <t>8747511000001109</t>
         </is>
       </c>
@@ -2004,11 +1319,6 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>8672011000001109</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
           <t>8651111000001103</t>
         </is>
       </c>
@@ -2016,11 +1326,6 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>8452111000001106</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
           <t>8432311000001107</t>
         </is>
       </c>
@@ -2028,11 +1333,6 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>8452411000001101</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
           <t>8432811000001103</t>
         </is>
       </c>
@@ -2040,11 +1340,6 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>42082311000001101</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
           <t>8433011000001100</t>
         </is>
       </c>
@@ -2052,11 +1347,6 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>8452211000001100</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
           <t>8432911000001108</t>
         </is>
       </c>
@@ -2064,11 +1354,6 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>8452511000001102</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
           <t>8433511000001108</t>
         </is>
       </c>
@@ -2076,11 +1361,6 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>8452311000001108</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
           <t>8434811000001109</t>
         </is>
       </c>
@@ -2088,11 +1368,6 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>8429111000001103</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
           <t>8422611000001104</t>
         </is>
       </c>
@@ -2100,11 +1375,6 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>8429011000001104</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
           <t>8423211000001107</t>
         </is>
       </c>
@@ -2112,11 +1382,6 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>8429311000001101</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
           <t>8423711000001100</t>
         </is>
       </c>
@@ -2124,11 +1389,6 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>8428911000001108</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
           <t>8424011000001100</t>
         </is>
       </c>
@@ -2136,11 +1396,6 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>8429211000001109</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
           <t>8424611000001107</t>
         </is>
       </c>
@@ -2148,11 +1403,6 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>8428811000001103</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
           <t>8424411000001109</t>
         </is>
       </c>
@@ -2160,11 +1410,6 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>42087111000001101</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
           <t>4752611000001107</t>
         </is>
       </c>
@@ -2172,11 +1417,6 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>42087111000001101</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
           <t>4752811000001106</t>
         </is>
       </c>
@@ -2184,11 +1424,6 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>37084211000001103</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
           <t>3851611000001100</t>
         </is>
       </c>
@@ -2196,11 +1431,6 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>37084211000001103</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
           <t>10528411000001108</t>
         </is>
       </c>
@@ -2208,11 +1438,6 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>37084211000001103</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
           <t>19792911000001107</t>
         </is>
       </c>
@@ -2220,11 +1445,6 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>37084211000001103</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
           <t>21926211000001105</t>
         </is>
       </c>
@@ -2232,11 +1452,6 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>37084211000001103</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
           <t>22404911000001102</t>
         </is>
       </c>
@@ -2244,11 +1459,6 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>37084211000001103</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
           <t>23590911000001106</t>
         </is>
       </c>
@@ -2256,11 +1466,6 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>37084211000001103</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
           <t>23968311000001104</t>
         </is>
       </c>
@@ -2268,11 +1473,6 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>37084211000001103</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
           <t>24648711000001107</t>
         </is>
       </c>
@@ -2280,11 +1480,6 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>37084211000001103</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
           <t>29803511000001106</t>
         </is>
       </c>
@@ -2292,11 +1487,6 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>37084211000001103</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
           <t>37956811000001109</t>
         </is>
       </c>
@@ -2304,11 +1494,6 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>37084211000001103</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
           <t>38718211000001102</t>
         </is>
       </c>
@@ -2316,11 +1501,6 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>37084211000001103</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
           <t>38867611000001102</t>
         </is>
       </c>
@@ -2328,11 +1508,6 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>37084211000001103</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
           <t>41114711000001103</t>
         </is>
       </c>
@@ -2340,11 +1515,6 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
           <t>3286511000001105</t>
         </is>
       </c>
@@ -2352,11 +1522,6 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
           <t>3286911000001103</t>
         </is>
       </c>
@@ -2364,11 +1529,6 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
           <t>3287811000001105</t>
         </is>
       </c>
@@ -2376,11 +1536,6 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
           <t>3288811000001109</t>
         </is>
       </c>
@@ -2388,11 +1543,6 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
           <t>15245611000001104</t>
         </is>
       </c>
@@ -2400,11 +1550,6 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
           <t>24672711000001108</t>
         </is>
       </c>
@@ -2412,11 +1557,6 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
           <t>29803711000001101</t>
         </is>
       </c>
@@ -2424,11 +1564,6 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
           <t>30047811000001109</t>
         </is>
       </c>
@@ -2436,11 +1571,6 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
           <t>32064711000001105</t>
         </is>
       </c>
@@ -2448,11 +1578,6 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
           <t>35477511000001105</t>
         </is>
       </c>
@@ -2460,11 +1585,6 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
           <t>37220711000001102</t>
         </is>
       </c>
@@ -2472,11 +1592,6 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
           <t>37393311000001107</t>
         </is>
       </c>
@@ -2484,11 +1599,6 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
           <t>37690211000001104</t>
         </is>
       </c>
@@ -2496,11 +1606,6 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
           <t>38039211000001104</t>
         </is>
       </c>
@@ -2508,11 +1613,6 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
           <t>39013311000001103</t>
         </is>
       </c>
@@ -2520,11 +1620,6 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
           <t>39299011000001106</t>
         </is>
       </c>
@@ -2532,11 +1627,6 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
           <t>40938611000001101</t>
         </is>
       </c>
@@ -2544,11 +1634,6 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
           <t>41561411000001101</t>
         </is>
       </c>
@@ -2556,11 +1641,6 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>42082211000001109</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
           <t>41922411000001106</t>
         </is>
       </c>
@@ -2568,11 +1648,6 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
           <t>3290311000001101</t>
         </is>
       </c>
@@ -2580,11 +1655,6 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
           <t>3291411000001104</t>
         </is>
       </c>
@@ -2592,11 +1662,6 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
           <t>3292011000001100</t>
         </is>
       </c>
@@ -2604,11 +1669,6 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
           <t>15104911000001100</t>
         </is>
       </c>
@@ -2616,11 +1676,6 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
           <t>15628711000001100</t>
         </is>
       </c>
@@ -2628,11 +1683,6 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
           <t>17890811000001109</t>
         </is>
       </c>
@@ -2640,11 +1690,6 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
           <t>17967911000001107</t>
         </is>
       </c>
@@ -2652,11 +1697,6 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
           <t>21925111000001105</t>
         </is>
       </c>
@@ -2664,11 +1704,6 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
           <t>23968511000001105</t>
         </is>
       </c>
@@ -2676,11 +1711,6 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
           <t>30809411000001107</t>
         </is>
       </c>
@@ -2688,11 +1718,6 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
           <t>32404811000001106</t>
         </is>
       </c>
@@ -2700,11 +1725,6 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
           <t>33634511000001106</t>
         </is>
       </c>
@@ -2712,11 +1732,6 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
           <t>34045511000001104</t>
         </is>
       </c>
@@ -2724,11 +1739,6 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
           <t>37221211000001103</t>
         </is>
       </c>
@@ -2736,11 +1746,6 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
           <t>38867211000001104</t>
         </is>
       </c>
@@ -2748,11 +1753,6 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
           <t>40939211000001108</t>
         </is>
       </c>
@@ -2760,11 +1760,6 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
           <t>41561111000001106</t>
         </is>
       </c>
@@ -2772,11 +1767,6 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>42082011000001104</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
           <t>41922111000001101</t>
         </is>
       </c>
@@ -2784,11 +1774,6 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>42087011000001102</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
           <t>313911000001107</t>
         </is>
       </c>
@@ -2796,11 +1781,6 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>42087011000001102</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
           <t>716111000001103</t>
         </is>
       </c>
@@ -2808,11 +1788,6 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>42087011000001102</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
           <t>4852811000001108</t>
         </is>
       </c>
@@ -2820,11 +1795,6 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>42087011000001102</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
           <t>17917211000001102</t>
         </is>
       </c>
@@ -2832,11 +1802,6 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>42087011000001102</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
           <t>28799811000001108</t>
         </is>
       </c>
@@ -2844,11 +1809,6 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>42087011000001102</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
           <t>30991311000001108</t>
         </is>
       </c>
@@ -2856,11 +1816,6 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>42087011000001102</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
           <t>37131011000001108</t>
         </is>
       </c>
@@ -2868,11 +1823,6 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>42087011000001102</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
           <t>37778711000001106</t>
         </is>
       </c>
@@ -2880,11 +1830,6 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>42087011000001102</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
           <t>39180111000001100</t>
         </is>
       </c>
@@ -2892,11 +1837,6 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
           <t>662011000001105</t>
         </is>
       </c>
@@ -2904,11 +1844,6 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
           <t>512811000001108</t>
         </is>
       </c>
@@ -2916,11 +1851,6 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
           <t>447211000001105</t>
         </is>
       </c>
@@ -2928,11 +1858,6 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
           <t>331111000001100</t>
         </is>
       </c>
@@ -2940,11 +1865,6 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
           <t>255211000001101</t>
         </is>
       </c>
@@ -2952,11 +1872,6 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
           <t>4208911000001103</t>
         </is>
       </c>
@@ -2964,11 +1879,6 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
           <t>13245911000001103</t>
         </is>
       </c>
@@ -2976,11 +1886,6 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
           <t>15176111000001100</t>
         </is>
       </c>
@@ -2988,11 +1893,6 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
           <t>17916811000001103</t>
         </is>
       </c>
@@ -3000,11 +1900,6 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
           <t>17999611000001109</t>
         </is>
       </c>
@@ -3012,11 +1907,6 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
           <t>18307211000001104</t>
         </is>
       </c>
@@ -3024,11 +1914,6 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
           <t>19743211000001104</t>
         </is>
       </c>
@@ -3036,11 +1921,6 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
           <t>22453011000001108</t>
         </is>
       </c>
@@ -3048,11 +1928,6 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
           <t>22520311000001107</t>
         </is>
       </c>
@@ -3060,11 +1935,6 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
           <t>30114311000001108</t>
         </is>
       </c>
@@ -3072,11 +1942,6 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
           <t>32652511000001109</t>
         </is>
       </c>
@@ -3084,11 +1949,6 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
           <t>33577911000001102</t>
         </is>
       </c>
@@ -3096,11 +1956,6 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
           <t>34444511000001106</t>
         </is>
       </c>
@@ -3108,11 +1963,6 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
           <t>37130611000001106</t>
         </is>
       </c>
@@ -3120,11 +1970,6 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>42087211000001107</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
           <t>39204911000001106</t>
         </is>
       </c>
@@ -3132,11 +1977,6 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
           <t>649711000001109</t>
         </is>
       </c>
@@ -3144,11 +1984,6 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
           <t>646211000001106</t>
         </is>
       </c>
@@ -3156,11 +1991,6 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
           <t>238511000001107</t>
         </is>
       </c>
@@ -3168,11 +1998,6 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
           <t>798611000001108</t>
         </is>
       </c>
@@ -3180,11 +2005,6 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
           <t>844111000001103</t>
         </is>
       </c>
@@ -3192,11 +2012,6 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
           <t>707911000001100</t>
         </is>
       </c>
@@ -3204,11 +2019,6 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
           <t>52911000001107</t>
         </is>
       </c>
@@ -3216,11 +2026,6 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
           <t>9807711000001108</t>
         </is>
       </c>
@@ -3228,11 +2033,6 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
           <t>10409611000001103</t>
         </is>
       </c>
@@ -3240,11 +2040,6 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
           <t>13245311000001104</t>
         </is>
       </c>
@@ -3252,11 +2047,6 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
           <t>14786411000001103</t>
         </is>
       </c>
@@ -3264,11 +2054,6 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
           <t>15175511000001102</t>
         </is>
       </c>
@@ -3276,11 +2061,6 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
           <t>18285011000001109</t>
         </is>
       </c>
@@ -3288,11 +2068,6 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
           <t>21851211000001107</t>
         </is>
       </c>
@@ -3300,11 +2075,6 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
           <t>30114811000001104</t>
         </is>
       </c>
@@ -3312,11 +2082,6 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
           <t>30858911000001100</t>
         </is>
       </c>
@@ -3324,11 +2089,6 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
           <t>32807911000001101</t>
         </is>
       </c>
@@ -3336,11 +2096,6 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
           <t>39169011000001106</t>
         </is>
       </c>
@@ -3348,11 +2103,6 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>42086811000001106</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
           <t>41991511000001108</t>
         </is>
       </c>
@@ -3360,11 +2110,6 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
           <t>876911000001107</t>
         </is>
       </c>
@@ -3372,11 +2117,6 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
           <t>85511000001101</t>
         </is>
       </c>
@@ -3384,11 +2124,6 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
           <t>110811000001100</t>
         </is>
       </c>
@@ -3396,11 +2131,6 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
           <t>86711000001103</t>
         </is>
       </c>
@@ -3408,11 +2138,6 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
           <t>940311000001100</t>
         </is>
       </c>
@@ -3420,11 +2145,6 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
           <t>350611000001104</t>
         </is>
       </c>
@@ -3432,11 +2152,6 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
           <t>772111000001107</t>
         </is>
       </c>
@@ -3444,11 +2159,6 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
           <t>9807911000001105</t>
         </is>
       </c>
@@ -3456,11 +2166,6 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
           <t>10410111000001103</t>
         </is>
       </c>
@@ -3468,11 +2173,6 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
           <t>13245511000001105</t>
         </is>
       </c>
@@ -3480,11 +2180,6 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
           <t>14786811000001101</t>
         </is>
       </c>
@@ -3492,11 +2187,6 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
           <t>18285211000001104</t>
         </is>
       </c>
@@ -3504,11 +2194,6 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
           <t>18625211000001107</t>
         </is>
       </c>
@@ -3516,11 +2201,6 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
           <t>21851411000001106</t>
         </is>
       </c>
@@ -3528,11 +2208,6 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
           <t>28799011000001102</t>
         </is>
       </c>
@@ -3540,11 +2215,6 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
           <t>30115011000001109</t>
         </is>
       </c>
@@ -3552,11 +2222,6 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
           <t>30859111000001105</t>
         </is>
       </c>
@@ -3564,11 +2229,6 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
           <t>32808311000001101</t>
         </is>
       </c>
@@ -3576,11 +2236,6 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
           <t>38721711000001107</t>
         </is>
       </c>
@@ -3588,11 +2243,6 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
           <t>40021511000001101</t>
         </is>
       </c>
@@ -3600,11 +2250,6 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>42087311000001104</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
           <t>41581311000001106</t>
         </is>
       </c>
@@ -3612,11 +2257,6 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
           <t>858811000001104</t>
         </is>
       </c>
@@ -3624,11 +2264,6 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
           <t>380011000001100</t>
         </is>
       </c>
@@ -3636,11 +2271,6 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
           <t>685311000001104</t>
         </is>
       </c>
@@ -3648,11 +2278,6 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
           <t>459611000001100</t>
         </is>
       </c>
@@ -3660,11 +2285,6 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
           <t>779211000001109</t>
         </is>
       </c>
@@ -3672,11 +2292,6 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
           <t>4208511000001105</t>
         </is>
       </c>
@@ -3684,11 +2299,6 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
           <t>13245711000001100</t>
         </is>
       </c>
@@ -3696,11 +2306,6 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
           <t>15175711000001107</t>
         </is>
       </c>
@@ -3708,11 +2313,6 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
           <t>17916411000001100</t>
         </is>
       </c>
@@ -3720,11 +2320,6 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
           <t>17999311000001104</t>
         </is>
       </c>
@@ -3732,11 +2327,6 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
           <t>18307011000001109</t>
         </is>
       </c>
@@ -3744,11 +2334,6 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
           <t>19743011000001109</t>
         </is>
       </c>
@@ -3756,11 +2341,6 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
           <t>22452711000001102</t>
         </is>
       </c>
@@ -3768,11 +2348,6 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
           <t>22519711000001105</t>
         </is>
       </c>
@@ -3780,11 +2355,6 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
           <t>30114011000001105</t>
         </is>
       </c>
@@ -3792,11 +2362,6 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
           <t>32652311000001103</t>
         </is>
       </c>
@@ -3804,11 +2369,6 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
           <t>33577711000001104</t>
         </is>
       </c>
@@ -3816,11 +2376,6 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
           <t>36568211000001107</t>
         </is>
       </c>
@@ -3828,11 +2383,6 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
           <t>37130211000001109</t>
         </is>
       </c>
@@ -3840,11 +2390,6 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>42086911000001101</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
           <t>39300111000001105</t>
         </is>
       </c>
@@ -3852,11 +2397,6 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>39722711000001103</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
           <t>245011000001108</t>
         </is>
       </c>
@@ -3864,11 +2404,6 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>39722711000001103</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
           <t>157711000001100</t>
         </is>
       </c>
@@ -3876,11 +2411,6 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>39722711000001103</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
           <t>392511000001108</t>
         </is>
       </c>
@@ -3888,11 +2418,6 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>39722711000001103</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
           <t>15172311000001102</t>
         </is>
       </c>
@@ -3900,11 +2425,6 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>39722711000001103</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
           <t>28937511000001104</t>
         </is>
       </c>
@@ -3912,11 +2432,6 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>39722711000001103</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
           <t>30114611000001103</t>
         </is>
       </c>
@@ -3924,11 +2439,6 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>39722711000001103</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
           <t>34035411000001102</t>
         </is>
       </c>
@@ -3936,11 +2446,6 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>39722711000001103</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
           <t>34172711000001106</t>
         </is>
       </c>
@@ -3948,11 +2453,6 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>39722711000001103</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
           <t>37727411000001103</t>
         </is>
       </c>
@@ -3960,12 +2460,686 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
+          <t>39179711000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>41968511000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>41968211000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>41968311000001106</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>41968411000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>40306711000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>40306811000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>35574111000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>34796811000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>42082111000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>32781411000001102</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>32611811000001105</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>32071811000001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>32072011000001106</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>32071911000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>31141511000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>29904211000001102</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>29424511000001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>28881311000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>28808611000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>28808411000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>28808711000001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>24580511000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>24350911000001102</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>17872811000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>17873211000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>17873811000001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>14204411000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>14204511000001102</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>42087411000001106</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>13133111000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>13078411000001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>13078311000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>13078611000001106</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>42086511000001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>42086711000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>42086611000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>13079011000001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>13078911000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>13079211000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>13079111000001105</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>13079411000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>13079311000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>13079611000001102</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>13079511000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>11714611000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>11714511000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>11714811000001102</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>11714711000001105</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>11714911000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>11715111000001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>11715011000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>11715311000001105</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>11715211000001102</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>11715511000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>11715411000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>11715711000001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>11715611000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>11715911000001106</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>11715811000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>11716111000001102</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>11716011000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>11716311000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>11716211000001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>11716511000001106</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>11716411000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>11716711000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>11716611000001105</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>11716911000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>11716811000001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>11612111000001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>42087611000001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>42087811000001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>42087711000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>8792611000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>8672011000001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>8452111000001106</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>8452411000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>42082311000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>8452211000001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>8452511000001102</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>8452311000001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>8429111000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>8429011000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>8429311000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>8428911000001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>8429211000001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>8428811000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>42087111000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>37084211000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>42082211000001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>42082011000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>42087011000001102</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>42087211000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>42086811000001106</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>42087311000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>42086911000001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
           <t>39722711000001103</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>39179711000001104</t>
         </is>
       </c>
     </row>
